--- a/模板/guarantee.xlsx
+++ b/模板/guarantee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\csms\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD06666-69CB-45CD-9E24-72B0AD880802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073DF304-E553-4E6A-AF79-8E0659DB6098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="2470" windowWidth="18070" windowHeight="10060" xr2:uid="{61944EB5-E76C-4A4C-B87E-2AD3AAED13D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{61944EB5-E76C-4A4C-B87E-2AD3AAED13D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>ProjectID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,14 @@
   </si>
   <si>
     <t>工程所在地详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出单员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D57089-2588-466F-AD87-F893975C05B8}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -650,7 +658,7 @@
     <col min="24" max="24" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,8 +731,11 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -796,6 +807,9 @@
       </c>
       <c r="X2" s="7" t="s">
         <v>47</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
